--- a/biology/Botanique/Brahea_salvadorensis/Brahea_salvadorensis.xlsx
+++ b/biology/Botanique/Brahea_salvadorensis/Brahea_salvadorensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brahea salvadorensis est une espèce de plantes de la famille des Arecaceae (palmiers).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce peu commune qui se rencontre sur les coteaux rocheux secs, parfois dans les forêts de pins et de chênes, de la zone nord-centrale à une altitude comprises entre 800 et 1 600 m au Salvador et au Nicaragua. La floraison a lieu en août.
 </t>
@@ -568,16 +584,18 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Brahea salvadorensis a été décrite par H.Wendl. ex Becc. et publié sur Webbia 2: 105–106. 1907[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brahea salvadorensis a été décrite par H.Wendl. ex Becc. et publié sur Webbia 2: 105–106. 1907.
 Étymologie
-Brahea: nom générique attribué en l'honneur de l’astronome, Tycho Brahe (1546–1601)[3].
+Brahea: nom générique attribué en l'honneur de l’astronome, Tycho Brahe (1546–1601).
 salvadorensis: épithète géographique qui fait allusion à sa présence au Salvador.
 Synonymes
 Acoelorrhaphe salvadorensis (H.Wendl. ex Becc.) Bartlett, Publ. Carnegie Inst. Wash. 461: 32 (1935).
 Erythea salvadorensis (H.Wendl. ex Becc.) H.E.Moore, Gentes Herb. 8: 217 (1951).
-Acoelorrhaphe cookii Bartlett, Publ. Carnegie Inst. Wash. 461: 32 (1935)[4]</t>
+Acoelorrhaphe cookii Bartlett, Publ. Carnegie Inst. Wash. 461: 32 (1935)</t>
         </is>
       </c>
     </row>
